--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail15 Features.xlsx
@@ -4010,7 +4010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4021,29 +4021,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4064,115 +4062,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4189,72 +4177,66 @@
         <v>2.301129321162988e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.490279036364109</v>
+        <v>8.230987219362775e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.299028202336106</v>
+        <v>1.516609751556437e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.230987219362775e-07</v>
+        <v>-0.05733775168575778</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.516609751556437e-06</v>
+        <v>0.1200805645616972</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.05733775168575778</v>
+        <v>0.01765925969077356</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1200805645616972</v>
+        <v>1.912016796543007</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01765925969077356</v>
+        <v>1.969637749414853</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.951249797418965</v>
+        <v>4.489157344765017</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.969637749414853</v>
+        <v>4.674632746054397e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.489157344765017</v>
+        <v>1525912587.683603</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.674632746054397e-17</v>
+        <v>7.825889387308932e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1525912587.683603</v>
+        <v>108.8445801057473</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7.825889387308932e-08</v>
+        <v>0.0001156170289642869</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>108.8445801057473</v>
+        <v>9.915906397268008</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001156170289642869</v>
+        <v>1.364441249326334</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.915906397268008</v>
+        <v>0.01136806745925024</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.364441249326334</v>
+        <v>3.886213420815777</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01136806745925024</v>
+        <v>0.9561098150569263</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.886213420815777</v>
+        <v>1.173292594165461</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9561098150569263</v>
+        <v>0</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.173292594165461</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.050827949531693</v>
       </c>
     </row>
@@ -4269,72 +4251,66 @@
         <v>2.223933494204793e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.5017270199738963</v>
+        <v>6.586880191091523e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.370106749715103</v>
+        <v>1.504993119885816e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.586880191091523e-07</v>
+        <v>-0.0460219682655375</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.504993119885816e-06</v>
+        <v>0.08733241059010961</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.0460219682655375</v>
+        <v>0.009722344153862092</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.08733241059010961</v>
+        <v>1.900395223588565</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.009722344153862092</v>
+        <v>1.772922539567883</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.926835666505962</v>
+        <v>4.708476597455592</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.772922539567883</v>
+        <v>9.649857689130721e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.708476597455592</v>
+        <v>730465046.9158076</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.649857689130721e-17</v>
+        <v>1.633134546616295e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>730465046.9158076</v>
+        <v>51.48963198871517</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.633134546616295e-07</v>
+        <v>0.0001671477587357367</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>51.48963198871517</v>
+        <v>10.64493579421369</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001671477587357367</v>
+        <v>1.35025134418911</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.64493579421369</v>
+        <v>0.01894029112712543</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.35025134418911</v>
+        <v>3.217252266386347</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01894029112712543</v>
+        <v>0.9564428708842251</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.217252266386347</v>
+        <v>1.318371394832004</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9564428708842251</v>
+        <v>0</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.318371394832004</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.9676570950771932</v>
       </c>
     </row>
@@ -4349,72 +4325,66 @@
         <v>2.181882435434851e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.5648297049686191</v>
+        <v>6.116101727099454e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.293025367904451</v>
+        <v>1.495833025996015e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.116101727099454e-07</v>
+        <v>-0.03775224464643002</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.495833025996015e-06</v>
+        <v>0.07102182592755832</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.03775224464643002</v>
+        <v>0.006461399572785357</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.07102182592755832</v>
+        <v>1.891345624546638</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.006461399572785357</v>
+        <v>1.700047627287059</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.906103139376457</v>
+        <v>4.009006109663408</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.700047627287059</v>
+        <v>1.744326289556627e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.009006109663408</v>
+        <v>406953972.5407966</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.744326289556627e-16</v>
+        <v>2.922551020609539e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>406953972.5407966</v>
+        <v>28.88805556917641</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.922551020609539e-07</v>
+        <v>0.0002203274176757022</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>28.88805556917641</v>
+        <v>11.36888252444718</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002203274176757022</v>
+        <v>1.23472523395356</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.36888252444718</v>
+        <v>0.02847764699041896</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.23472523395356</v>
+        <v>2.596018395410994</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02847764699041896</v>
+        <v>0.9574920991118696</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.596018395410994</v>
+        <v>1.372354620476622</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9574920991118696</v>
+        <v>0</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.372354620476622</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.4250219383852716</v>
       </c>
     </row>
@@ -4429,72 +4399,66 @@
         <v>2.153571651473148e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.6399396669202472</v>
+        <v>6.116101727099454e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.182189640923355</v>
+        <v>1.488259777151847e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.116101727099454e-07</v>
+        <v>-0.03265405085936991</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.488259777151847e-06</v>
+        <v>0.06911103456582429</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.03265405085936991</v>
+        <v>0.005840941543910934</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.06911103456582429</v>
+        <v>1.882170930145471</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.005840941543910934</v>
+        <v>1.70293645780323</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.89522992454882</v>
+        <v>3.667904402559274</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.70293645780323</v>
+        <v>2.038520332291088e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.667904402559274</v>
+        <v>348549415.8395959</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.038520332291088e-16</v>
+        <v>3.406270854886608e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>348549415.8395959</v>
+        <v>24.76530984354607</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.406270854886608e-07</v>
+        <v>0.0002255527816476317</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>24.76530984354607</v>
+        <v>12.60451827150886</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002255527816476317</v>
+        <v>1.066010105966575</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>12.60451827150886</v>
+        <v>0.03583444575840579</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.066010105966575</v>
+        <v>2.329978965079821</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.03583444575840579</v>
+        <v>0.9564059558092539</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.329978965079821</v>
+        <v>1.399574666058179</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9564059558092539</v>
+        <v>0</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.399574666058179</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3114411799273054</v>
       </c>
     </row>
@@ -4509,72 +4473,66 @@
         <v>2.126571618230394e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.7166305109098539</v>
+        <v>6.116101727099454e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.05506129969923</v>
+        <v>1.481551089416461e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.116101727099454e-07</v>
+        <v>-0.03044427650421861</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.481551089416461e-06</v>
+        <v>0.07254660852331324</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.03044427650421861</v>
+        <v>0.006188555442520231</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.07254660852331324</v>
+        <v>1.873832401183742</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.006188555442520231</v>
+        <v>1.666987756413982</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.873565994295888</v>
+        <v>3.669997906080813</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.666987756413982</v>
+        <v>2.506544329686502e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.669997906080813</v>
+        <v>286103975.7602081</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.506544329686502e-16</v>
+        <v>4.143735895267265e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>286103975.7602081</v>
+        <v>20.51744016446281</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.143735895267265e-07</v>
+        <v>0.0002136187522953847</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>20.51744016446281</v>
+        <v>12.92713298151314</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002136187522953847</v>
+        <v>1.019409369746039</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>12.92713298151314</v>
+        <v>0.03569799356766743</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.019409369746039</v>
+        <v>2.309191739603521</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.03569799356766743</v>
+        <v>0.9583590007686689</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.309191739603521</v>
+        <v>1.41426790720313</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9583590007686689</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.41426790720313</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2796505704366334</v>
       </c>
     </row>
@@ -4589,72 +4547,66 @@
         <v>2.092636661550701e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.793065850915207</v>
+        <v>6.116101727099454e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.9052413586833286</v>
+        <v>1.475170246671663e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.116101727099454e-07</v>
+        <v>-0.03015121527869148</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.475170246671663e-06</v>
+        <v>0.07538509868492238</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03015121527869148</v>
+        <v>0.006588662580561369</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.07538509868492238</v>
+        <v>1.851318179174839</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.006588662580561369</v>
+        <v>1.540097060348036</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.830976436805477</v>
+        <v>4.20699654441882</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.540097060348036</v>
+        <v>4.025104858878706e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.20699654441882</v>
+        <v>179396626.6908821</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.025104858878706e-16</v>
+        <v>6.621070120629138e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>179396626.6908821</v>
+        <v>12.95405521029599</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.621070120629138e-07</v>
+        <v>0.0001854848681789104</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>12.95405521029599</v>
+        <v>12.59452227121725</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001854848681789104</v>
+        <v>1.010666148563148</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>12.59452227121725</v>
+        <v>0.02942197913546243</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.010666148563148</v>
+        <v>2.544105408754572</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02942197913546243</v>
+        <v>0.9573668534909058</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.544105408754572</v>
+        <v>1.527046772684815</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9573668534909058</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.527046772684815</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.286522875554206</v>
       </c>
     </row>
@@ -4669,72 +4621,66 @@
         <v>2.046623355156127e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.8649378166207867</v>
+        <v>6.116101727099454e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.7330505349814258</v>
+        <v>1.46890134665933e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>6.116101727099454e-07</v>
+        <v>-0.03030014832628513</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.46890134665933e-06</v>
+        <v>0.07856307753217535</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03030014832628513</v>
+        <v>0.007085204635183545</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.07856307753217535</v>
+        <v>1.847928775594147</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.007085204635183545</v>
+        <v>1.523227506903261</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.825592424143133</v>
+        <v>3.651783977286281</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.523227506903261</v>
+        <v>6.304183411254781e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.651783977286281</v>
+        <v>119254719.1787133</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>6.304183411254781e-16</v>
+        <v>9.96998012506593e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>119254719.1787133</v>
+        <v>8.965612986211605</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>9.96998012506593e-07</v>
+        <v>0.000158501675153309</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>8.965612986211605</v>
+        <v>13.22571301039915</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.000158501675153309</v>
+        <v>1.074810753645856</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>13.22571301039915</v>
+        <v>0.02772503133135394</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.074810753645856</v>
+        <v>2.919059969971193</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02772503133135394</v>
+        <v>0.957553665707094</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.919059969971193</v>
+        <v>1.553162861263992</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.957553665707094</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.553162861263992</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.3058512522857457</v>
       </c>
     </row>
@@ -4749,72 +4695,66 @@
         <v>1.987030889010168e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.9224668709982142</v>
+        <v>6.116101727099454e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.5588800339561981</v>
+        <v>1.462829753592929e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>6.116101727099454e-07</v>
+        <v>-0.02956609300367536</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.462829753592929e-06</v>
+        <v>0.08563145133878441</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.02956609300367536</v>
+        <v>0.008200487190110585</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.08563145133878441</v>
+        <v>1.8078552752696</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.008200487190110585</v>
+        <v>1.423214591959017</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.768155979421751</v>
+        <v>4.256677675266105</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.423214591959017</v>
+        <v>9.935680227562522e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.256677675266105</v>
+        <v>77119362.59249701</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>9.935680227562522e-16</v>
+        <v>1.530141096528873e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>77119362.59249701</v>
+        <v>5.909142570383991</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.530141096528873e-06</v>
+        <v>0.0001868012801683877</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>5.909142570383991</v>
+        <v>13.50867422166816</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001868012801683877</v>
+        <v>1.15458674809648</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>13.50867422166816</v>
+        <v>0.03408829697023937</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.15458674809648</v>
+        <v>2.778258528607685</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.03408829697023937</v>
+        <v>0.955401338963604</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.778258528607685</v>
+        <v>1.594054100936488</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.955401338963604</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.594054100936488</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2284915433529935</v>
       </c>
     </row>
@@ -4829,72 +4769,66 @@
         <v>1.917342097801495e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.9523182823463271</v>
+        <v>6.116101727099454e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.4255511619212249</v>
+        <v>1.457282410585958e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6.116101727099454e-07</v>
+        <v>-0.02667456772922131</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.457282410585958e-06</v>
+        <v>0.09924750782429609</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.02667456772922131</v>
+        <v>0.0105518618533712</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.09924750782429609</v>
+        <v>1.746399556826425</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.0105518618533712</v>
+        <v>1.343986120275787</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.683967461669956</v>
+        <v>4.069952462792767</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.343986120275787</v>
+        <v>1.982150685781383e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.069952462792767</v>
+        <v>38447080.17998655</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.982150685781383e-15</v>
+        <v>3.02664452842522e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>38447080.17998655</v>
+        <v>2.929971485597127</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.02664452842522e-06</v>
+        <v>0.0002170796878839422</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>2.929971485597127</v>
+        <v>12.41680621801246</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0002170796878839422</v>
+        <v>1.147870112477327</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>12.41680621801246</v>
+        <v>0.03346871167927208</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.147870112477327</v>
+        <v>2.494767731486486</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.03346871167927208</v>
+        <v>0.9508709945378987</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.494767731486486</v>
+        <v>1.732306746164809</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9508709945378987</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.732306746164809</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1552640318362845</v>
       </c>
     </row>
@@ -4909,72 +4843,66 @@
         <v>1.847518913720113e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.9440046857699246</v>
+        <v>6.108574462344155e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.386466922060865</v>
+        <v>1.452777896245745e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>6.108574462344155e-07</v>
+        <v>-0.020648987536221</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.452777896245745e-06</v>
+        <v>0.1188017832417422</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.020648987536221</v>
+        <v>0.01452685505771406</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1188017832417422</v>
+        <v>1.603919031407997</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01452685505771406</v>
+        <v>1.186327006812904</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.65102719934642</v>
+        <v>24.24948235367651</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.186327006812904</v>
+        <v>3.623023542700819e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>24.24948235367651</v>
+        <v>820468180.2221571</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.623023542700819e-15</v>
+        <v>1.302866911443489e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>820468180.2221571</v>
+        <v>2438.903638118465</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.302866911443489e-07</v>
+        <v>0.0002281186245046671</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>2438.903638118465</v>
+        <v>13.77620413267897</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0002281186245046671</v>
+        <v>0.9819051391316617</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>13.77620413267897</v>
+        <v>0.04329321947890001</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>0.9819051391316617</v>
+        <v>2.179958707164008</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.04329321947890001</v>
+        <v>0.952458644687129</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.179958707164008</v>
+        <v>0.7990006994797457</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.952458644687129</v>
+        <v>2</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.7990006994797457</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1689425361410281</v>
       </c>
     </row>
@@ -4989,72 +4917,66 @@
         <v>1.791338826321518e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.9047110672820062</v>
+        <v>6.014760137364657e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.4589440248278973</v>
+        <v>1.449721687025085e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6.014760137364657e-07</v>
+        <v>-0.01265714476289158</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.449721687025085e-06</v>
+        <v>0.1374077751717191</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.01265714476289158</v>
+        <v>0.01902725951182972</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1374077751717191</v>
+        <v>1.575244544744271</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01902725951182972</v>
+        <v>1.188938932767817</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.611515798027959</v>
+        <v>23.06886548122524</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.188938932767817</v>
+        <v>4.003350615505925e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>23.06886548122524</v>
+        <v>742570545.1338801</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>4.003350615505925e-15</v>
+        <v>1.439456820661033e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>742570545.1338801</v>
+        <v>2207.491624297035</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.439456820661033e-07</v>
+        <v>0.0001489588089829606</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>2207.491624297035</v>
+        <v>11.8533802121774</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001489588089829606</v>
+        <v>1.162514510802481</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.8533802121774</v>
+        <v>0.02092910329979578</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.162514510802481</v>
+        <v>3.98753203783812</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02092910329979578</v>
+        <v>0.9477580421933048</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.98753203783812</v>
+        <v>0.9606164594321722</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9477580421933048</v>
+        <v>5</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.9606164594321722</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>1.875060101607482</v>
       </c>
     </row>
@@ -5069,72 +4991,66 @@
         <v>1.76023792968307e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.8662745606561645</v>
+        <v>5.854332684252098e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.5648935547058689</v>
+        <v>1.448224766649833e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.854332684252098e-07</v>
+        <v>-0.004278661408565139</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.448224766649833e-06</v>
+        <v>0.1502894644935213</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.004278661408565139</v>
+        <v>0.02259555759103453</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1502894644935213</v>
+        <v>1.543236525517197</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02259555759103453</v>
+        <v>1.196066573356794</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.566813788888416</v>
+        <v>17.40654890623022</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.196066573356794</v>
+        <v>7.031544853071074e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>17.40654890623022</v>
+        <v>422857738.5755712</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>7.031544853071074e-15</v>
+        <v>2.527531609288655e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>422857738.5755712</v>
+        <v>1257.301162643383</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.527531609288655e-07</v>
+        <v>0.0001156602699724624</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>1257.301162643383</v>
+        <v>8.911422805218811</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001156602699724624</v>
+        <v>1.853405864669942</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.911422805218811</v>
+        <v>0.009184981808217196</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.853405864669942</v>
+        <v>5.308552267741833</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.009184981808217196</v>
+        <v>0.943240127098528</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>5.308552267741833</v>
+        <v>0.946230171249908</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.943240127098528</v>
+        <v>5</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.946230171249908</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>3.571654166620655</v>
       </c>
     </row>
@@ -5149,72 +5065,66 @@
         <v>1.757220139260955e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.861808134762822</v>
+        <v>5.918868492687323e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.5783989861890428</v>
+        <v>1.448084605506143e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.918868492687323e-07</v>
+        <v>0.002269447351849539</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.448084605506143e-06</v>
+        <v>0.1549018996542613</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.002269447351849539</v>
+        <v>0.02399608281603012</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1549018996542613</v>
+        <v>1.529332623789707</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02399608281603012</v>
+        <v>1.19957955756179</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.547236902174747</v>
+        <v>12.54867594141401</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.19957955756179</v>
+        <v>1.352945468422926e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>12.54867594141401</v>
+        <v>219783642.6414476</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.352945468422926e-14</v>
+        <v>4.862805960033257e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>219783642.6414476</v>
+        <v>653.5382733229445</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.862805960033257e-07</v>
+        <v>0.0001193103392826518</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>653.5382733229445</v>
+        <v>9.391797990152737</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001193103392826518</v>
+        <v>1.648630796468089</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.391797990152737</v>
+        <v>0.01052387221531513</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.648630796468089</v>
+        <v>5.210532517387029</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01052387221531513</v>
+        <v>0.9407975574640962</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>5.210532517387029</v>
+        <v>0.9412391142966869</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9407975574640962</v>
+        <v>5</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.9412391142966869</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>3.609879112267614</v>
       </c>
     </row>
@@ -5229,72 +5139,66 @@
         <v>1.775473811554568e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.8927569136290675</v>
+        <v>6.179253621301796e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.475605786340541</v>
+        <v>1.44887575340061e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.179253621301796e-07</v>
+        <v>0.006339091639411434</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.44887575340061e-06</v>
+        <v>0.1538861137226948</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.006339091639411434</v>
+        <v>0.02371991987602636</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1538861137226948</v>
+        <v>1.516691711755868</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02371991987602636</v>
+        <v>1.203201590056066</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.527279613033939</v>
+        <v>11.11138015981261</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.203201590056066</v>
+        <v>1.725599822738857e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>11.11138015981261</v>
+        <v>172340679.9075203</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.725599822738857e-14</v>
+        <v>6.201282502743368e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>172340679.9075203</v>
+        <v>512.5257518653393</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>6.201282502743368e-07</v>
+        <v>0.0001173734116825466</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>512.5257518653393</v>
+        <v>10.95782897897848</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001173734116825466</v>
+        <v>1.179573973968822</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.95782897897848</v>
+        <v>0.01409349690442674</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.179573973968822</v>
+        <v>4.928154312114725</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01409349690442674</v>
+        <v>0.9409908857775862</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>4.928154312114725</v>
+        <v>1.026607720254981</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9409908857775862</v>
+        <v>5</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.026607720254981</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>3.493057786743661</v>
       </c>
     </row>
@@ -5309,72 +5213,66 @@
         <v>1.80655956047481e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.9401547705665286</v>
+        <v>6.269918542820342e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.3255103675156841</v>
+        <v>1.45025147136433e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.269918542820342e-07</v>
+        <v>0.008860103682570578</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.45025147136433e-06</v>
+        <v>0.1506207073363028</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.008860103682570578</v>
+        <v>0.02276414215580464</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1506207073363028</v>
+        <v>1.502800915282191</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02276414215580464</v>
+        <v>1.205566492865982</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.508530181716416</v>
+        <v>10.77779410385969</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.205566492865982</v>
+        <v>1.83407180819779e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>10.77779410385969</v>
+        <v>162160049.2793256</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.83407180819779e-14</v>
+        <v>6.590382006239586e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>162160049.2793256</v>
+        <v>482.2853508175494</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>6.590382006239586e-07</v>
+        <v>0.0001346315534290193</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>482.2853508175494</v>
+        <v>12.37089211153828</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001346315534290193</v>
+        <v>1.041784414689765</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>12.37089211153828</v>
+        <v>0.02060387448644274</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.041784414689765</v>
+        <v>4.353131774216676</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02060387448644274</v>
+        <v>0.9358574149280928</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>4.353131774216676</v>
+        <v>1.031264162081301</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9358574149280928</v>
+        <v>5</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.031264162081301</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>3.039019593016574</v>
       </c>
     </row>
@@ -5389,72 +5287,66 @@
         <v>1.84567875850702e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.9882259577813562</v>
+        <v>6.282567048182743e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.1908002539486366</v>
+        <v>1.452063326399783e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.282567048182743e-07</v>
+        <v>0.01095621510107003</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.452063326399783e-06</v>
+        <v>0.1463142657012835</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.01095621510107003</v>
+        <v>0.02152660999032348</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1463142657012835</v>
+        <v>1.500183951361637</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02152660999032348</v>
+        <v>1.208149458570674</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.500137497850429</v>
+        <v>10.76877311353889</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.208149458570674</v>
+        <v>1.837145895427615e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>10.76877311353889</v>
+        <v>161904079.0127031</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.837145895427615e-14</v>
+        <v>6.600841457895445e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>161904079.0127031</v>
+        <v>481.5697822809636</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>6.600841457895445e-07</v>
+        <v>0.000153645377004896</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>481.5697822809636</v>
+        <v>11.93700142310283</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.000153645377004896</v>
+        <v>1.079022037090046</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.93700142310283</v>
+        <v>0.02189323751730105</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.079022037090046</v>
+        <v>3.824421633210531</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02189323751730105</v>
+        <v>0.9343024417659951</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.824421633210531</v>
+        <v>0.977350423019462</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9343024417659951</v>
+        <v>5</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.977350423019462</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>2.133503762633753</v>
       </c>
     </row>
@@ -5831,7 +5723,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.406536668047886</v>
+        <v>1.417637635236545</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.00608573997444</v>
@@ -5920,7 +5812,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.402819411855887</v>
+        <v>1.399817012827792</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.946713853256001</v>
@@ -6009,7 +5901,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.444446414174968</v>
+        <v>1.43366226615679</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.0454307755188</v>
@@ -6098,7 +5990,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.476501815941422</v>
+        <v>1.452173744956629</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.938634366890283</v>
@@ -6187,7 +6079,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.510800610770347</v>
+        <v>1.513623109897543</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.22193119148496</v>
@@ -6276,7 +6168,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.578792710750585</v>
+        <v>1.575955239544732</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.28786387730419</v>
@@ -6365,7 +6257,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.643909907195775</v>
+        <v>1.636078668422725</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.902369643523348</v>
@@ -6454,7 +6346,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.631967332013965</v>
+        <v>1.624349282479147</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.89416630951922</v>
@@ -6543,7 +6435,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.621401157963332</v>
+        <v>1.609139985372298</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.955576406314636</v>
@@ -6632,7 +6524,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.610118887996296</v>
+        <v>1.593891182910307</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.895685404214074</v>
@@ -6721,7 +6613,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.606428165438134</v>
+        <v>1.591197431238203</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.919482601640732</v>
@@ -6810,7 +6702,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.61923372657562</v>
+        <v>1.593985602370776</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.947221684610847</v>
@@ -6899,7 +6791,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.615254095021968</v>
+        <v>1.579848976150044</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.664590747786625</v>
@@ -6988,7 +6880,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.639525803256954</v>
+        <v>1.597599117350543</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.954384541044969</v>
@@ -7077,7 +6969,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.645189028402478</v>
+        <v>1.609079348050782</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.609091951767436</v>
@@ -7166,7 +7058,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.668149119167064</v>
+        <v>1.62602464081957</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.357942752913815</v>
@@ -7255,7 +7147,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.664597309401643</v>
+        <v>1.621028198785604</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.673275532643372</v>
@@ -7344,7 +7236,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.65821082989632</v>
+        <v>1.612946823160428</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.342051632886508</v>
@@ -7433,7 +7325,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.661416971877002</v>
+        <v>1.618121462375441</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.332333359334599</v>
@@ -7522,7 +7414,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.659638752590566</v>
+        <v>1.615958248413753</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.230780488056319</v>
@@ -7611,7 +7503,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.657136974135388</v>
+        <v>1.611056032126526</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.255132993811902</v>
@@ -7700,7 +7592,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.651190490021369</v>
+        <v>1.607372413780553</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.196503426449716</v>
@@ -7789,7 +7681,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.643694634238889</v>
+        <v>1.601877505679264</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.568487315312036</v>
@@ -7878,7 +7770,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.650558369475208</v>
+        <v>1.607675136331015</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.274541931505214</v>
@@ -7967,7 +7859,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.650459663696813</v>
+        <v>1.606534019676668</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.572873117003687</v>
@@ -8056,7 +7948,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.64672750689847</v>
+        <v>1.599634377263883</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.427633981793661</v>
@@ -8145,7 +8037,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.649207563534802</v>
+        <v>1.600222594910696</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.628058484859607</v>
@@ -8234,7 +8126,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.651328007870702</v>
+        <v>1.606350486861252</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.416495234671945</v>
@@ -8323,7 +8215,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.653767917597817</v>
+        <v>1.605970078807026</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.759764908687484</v>
@@ -8412,7 +8304,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.649052885699185</v>
+        <v>1.597524872102331</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.608699038704311</v>
@@ -8501,7 +8393,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.647466946425496</v>
+        <v>1.596950413929157</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.424295442488392</v>
@@ -8590,7 +8482,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.649235934627115</v>
+        <v>1.599531692059919</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.379610327295114</v>
@@ -8679,7 +8571,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.644926708688705</v>
+        <v>1.600571117781342</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.734034410151758</v>
@@ -8768,7 +8660,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.637473097117966</v>
+        <v>1.597256331431876</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.743899063424058</v>
@@ -8857,7 +8749,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.632695925092403</v>
+        <v>1.593063733908566</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.616517139747304</v>
@@ -8946,7 +8838,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.62208814582367</v>
+        <v>1.588164159079817</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.033700040003846</v>
@@ -9035,7 +8927,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.620484937633076</v>
+        <v>1.589007996052878</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.602265968937681</v>
@@ -9124,7 +9016,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.631093267267524</v>
+        <v>1.597976834816267</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.475789462953222</v>
@@ -9213,7 +9105,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.620863343912139</v>
+        <v>1.589288929999798</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.356945526117908</v>
@@ -9302,7 +9194,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.619217556694125</v>
+        <v>1.595960549466394</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.039742257531766</v>
@@ -9391,7 +9283,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.622599499153352</v>
+        <v>1.596757129690199</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.977412320687541</v>
@@ -9480,7 +9372,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.612041799505417</v>
+        <v>1.588156988634282</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.222231884272698</v>
@@ -9569,7 +9461,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.616240467462549</v>
+        <v>1.595837643619043</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.314226452429992</v>
@@ -9658,7 +9550,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.621811641036447</v>
+        <v>1.600623155604314</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.112718340708049</v>
@@ -9747,7 +9639,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.618484159705499</v>
+        <v>1.594820526609879</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.186123997522772</v>
@@ -9836,7 +9728,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.607044053545782</v>
+        <v>1.58137964255837</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.158008937701376</v>
@@ -9925,7 +9817,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.617480771208407</v>
+        <v>1.597973493558567</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.024231112364168</v>
@@ -10014,7 +9906,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.604061493805082</v>
+        <v>1.58644559776167</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.813077207688627</v>
@@ -10103,7 +9995,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.600334317512186</v>
+        <v>1.580426311881541</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.067917419756687</v>
@@ -10192,7 +10084,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.612409851035668</v>
+        <v>1.587961835230575</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.91634356640412</v>
@@ -10281,7 +10173,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.61759538953035</v>
+        <v>1.590829538166399</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.127798564100188</v>
@@ -10370,7 +10262,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.598734689515293</v>
+        <v>1.571497491229506</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.989613034804998</v>
@@ -10459,7 +10351,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.588907271044278</v>
+        <v>1.557289473354914</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.973837056319894</v>
@@ -10548,7 +10440,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.545166947176549</v>
+        <v>1.515540114418646</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.722591551462502</v>
@@ -10637,7 +10529,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.54191795892629</v>
+        <v>1.508199587838813</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.609438854237055</v>
@@ -10726,7 +10618,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.517378651462555</v>
+        <v>1.48961701826386</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.691503889867228</v>
@@ -10815,7 +10707,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.5094763065004</v>
+        <v>1.488553366421042</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.584318397828224</v>
@@ -10904,7 +10796,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.508430266497182</v>
+        <v>1.486609612022953</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.611622504659644</v>
@@ -10993,7 +10885,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.501897833641716</v>
+        <v>1.477752959067437</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.639520748058142</v>
@@ -11082,7 +10974,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.51577054059159</v>
+        <v>1.49119115327058</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.462748244740121</v>
@@ -11171,7 +11063,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.520578252789289</v>
+        <v>1.49426770990649</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.606302636399463</v>
@@ -11457,7 +11349,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.369486442888887</v>
+        <v>1.315703278819165</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.624736900039044</v>
@@ -11546,7 +11438,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.480755383360338</v>
+        <v>1.426245740200146</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.598484539716187</v>
@@ -11635,7 +11527,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.562546061528737</v>
+        <v>1.549379086918978</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.29716666475022</v>
@@ -11724,7 +11616,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.599988310494987</v>
+        <v>1.580619439876193</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.543116657609779</v>
@@ -11813,7 +11705,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.644482106257985</v>
+        <v>1.629482441446163</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.948073670504712</v>
@@ -11902,7 +11794,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.650653781883721</v>
+        <v>1.630845801270403</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.555070093537565</v>
@@ -11991,7 +11883,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.672649702796576</v>
+        <v>1.652821109419738</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.076530399358731</v>
@@ -12080,7 +11972,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.673700349707354</v>
+        <v>1.649891074160763</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.970328476021513</v>
@@ -12169,7 +12061,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.665103022835208</v>
+        <v>1.6458739472991</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.043927279585451</v>
@@ -12258,7 +12150,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.665046759125872</v>
+        <v>1.640611804795733</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.907627543838553</v>
@@ -12347,7 +12239,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.663765538559487</v>
+        <v>1.642057195175125</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.87036197178204</v>
@@ -12436,7 +12328,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.686434879891359</v>
+        <v>1.66272646218849</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.756005486013138</v>
@@ -12525,7 +12417,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.69303058844404</v>
+        <v>1.668835629858115</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.897546693113839</v>
@@ -12614,7 +12506,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.693912677652124</v>
+        <v>1.668076769049051</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.928476368771991</v>
@@ -12703,7 +12595,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.68364770482315</v>
+        <v>1.659221527206986</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.65964232148923</v>
@@ -12792,7 +12684,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.687389650065946</v>
+        <v>1.652960591008453</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.952525454949042</v>
@@ -12881,7 +12773,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.653178836998756</v>
+        <v>1.618031051274568</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.335072659886297</v>
@@ -12970,7 +12862,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.592905079589324</v>
+        <v>1.581945542491244</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.303326394776116</v>
@@ -13059,7 +12951,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.58982224226761</v>
+        <v>1.584705037126812</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.273525850534979</v>
@@ -13148,7 +13040,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.590636876467036</v>
+        <v>1.585601249717502</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.319516259588172</v>
@@ -13237,7 +13129,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.590500485014409</v>
+        <v>1.583260824082259</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.255598929741037</v>
@@ -13326,7 +13218,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.581848607667386</v>
+        <v>1.573701816702083</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.345093287181957</v>
@@ -13415,7 +13307,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.593163609782348</v>
+        <v>1.589498024060241</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.249236347435526</v>
@@ -13504,7 +13396,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.596599481208687</v>
+        <v>1.587360516336392</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.255372659457127</v>
@@ -13593,7 +13485,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.601464181190249</v>
+        <v>1.591594588637297</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.35400821753371</v>
@@ -13682,7 +13574,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.599414696773975</v>
+        <v>1.591376289938952</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.357587343687436</v>
@@ -13771,7 +13663,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.605569796605235</v>
+        <v>1.590258082239513</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.242427453403547</v>
@@ -13860,7 +13752,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.60570361787719</v>
+        <v>1.592666116912543</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.265873083585411</v>
@@ -13949,7 +13841,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.6024012888432</v>
+        <v>1.589403061210348</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.339981084348175</v>
@@ -14038,7 +13930,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.609974545159949</v>
+        <v>1.592517868206567</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.324245815543995</v>
@@ -14127,7 +14019,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.617128125566159</v>
+        <v>1.597957278855768</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.318103553371262</v>
@@ -14216,7 +14108,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.665690577925591</v>
+        <v>1.635811800537099</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.210433371022565</v>
@@ -14305,7 +14197,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.718577831686726</v>
+        <v>1.672992848420799</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.726199693907509</v>
@@ -14394,7 +14286,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.717935260946967</v>
+        <v>1.668292285761194</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.174305579947612</v>
@@ -14483,7 +14375,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.702640025305523</v>
+        <v>1.65461828479196</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.920752817499676</v>
@@ -14572,7 +14464,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.704171152331666</v>
+        <v>1.660017348154202</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.044598430742974</v>
@@ -14661,7 +14553,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.709364775606977</v>
+        <v>1.661704217703063</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.307057946921662</v>
@@ -14750,7 +14642,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.704658460355383</v>
+        <v>1.652855562289653</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.30102178842297</v>
@@ -14839,7 +14731,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.706377282875051</v>
+        <v>1.658205643615352</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.127610371071712</v>
@@ -14928,7 +14820,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.710425911237709</v>
+        <v>1.659560368505427</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.259970152922752</v>
@@ -15017,7 +14909,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.710983465386155</v>
+        <v>1.65921699331185</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.995267884473077</v>
@@ -15106,7 +14998,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.708273361239</v>
+        <v>1.65624144670065</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.414362718441526</v>
@@ -15195,7 +15087,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.714422098401171</v>
+        <v>1.656096479470164</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.309868476814097</v>
@@ -15284,7 +15176,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.711452798320479</v>
+        <v>1.65114209184444</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.754392969569902</v>
@@ -15373,7 +15265,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.696969222006252</v>
+        <v>1.642506636209028</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.138338328324119</v>
@@ -15462,7 +15354,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.686307298437203</v>
+        <v>1.631319395266017</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.336919107515877</v>
@@ -15551,7 +15443,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.67173347753937</v>
+        <v>1.622486360724827</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.484421282691736</v>
@@ -15640,7 +15532,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.670475693035712</v>
+        <v>1.621224595910941</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.05774842652481</v>
@@ -15729,7 +15621,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.665594455982432</v>
+        <v>1.620131009072045</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.398694025632663</v>
@@ -15818,7 +15710,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.674618743827667</v>
+        <v>1.628614882413863</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.393630389868029</v>
@@ -15907,7 +15799,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.66786599827368</v>
+        <v>1.626522300252904</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.232167371063768</v>
@@ -15996,7 +15888,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.671555827167487</v>
+        <v>1.624084769447935</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.856677031747387</v>
@@ -16085,7 +15977,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.663187897988408</v>
+        <v>1.6155258887472</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.132842785513289</v>
@@ -16174,7 +16066,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.647301460841944</v>
+        <v>1.607648437225082</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.188584991105626</v>
@@ -16263,7 +16155,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.63359619030392</v>
+        <v>1.603410773770714</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.617220195051968</v>
@@ -16352,7 +16244,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.591740023122194</v>
+        <v>1.561655431645659</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.731834003254343</v>
@@ -16441,7 +16333,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.577578506095385</v>
+        <v>1.556059244145654</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.709639494952542</v>
@@ -16530,7 +16422,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.578606966574146</v>
+        <v>1.558372501245851</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.733613035092073</v>
@@ -16619,7 +16511,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.573208931065416</v>
+        <v>1.555593073581781</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.648316016430441</v>
@@ -16708,7 +16600,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.586464888145164</v>
+        <v>1.569614961380539</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.481018501526002</v>
@@ -16797,7 +16689,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.586639871938421</v>
+        <v>1.569471766409145</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.763694908254037</v>
@@ -17083,7 +16975,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.590504677486342</v>
+        <v>1.619150720461091</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.496679427086974</v>
@@ -17172,7 +17064,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.560947628596557</v>
+        <v>1.57679260715402</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.181217403997315</v>
@@ -17261,7 +17153,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.486335094065427</v>
+        <v>1.485483956711606</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.883976996331357</v>
@@ -17350,7 +17242,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.516107135475043</v>
+        <v>1.506308005225593</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.291701920980556</v>
@@ -17439,7 +17331,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.558851253247478</v>
+        <v>1.547916995454348</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.424534692777663</v>
@@ -17528,7 +17420,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.568097711590129</v>
+        <v>1.555196256211201</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.426473307927435</v>
@@ -17617,7 +17509,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.569789717323546</v>
+        <v>1.556742761120668</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.246029112275251</v>
@@ -17706,7 +17598,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.570873229344486</v>
+        <v>1.552272922064169</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.292241608616485</v>
@@ -17795,7 +17687,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.578012797832696</v>
+        <v>1.552309044557322</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.216270797198113</v>
@@ -17884,7 +17776,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.644654858901997</v>
+        <v>1.606197977379289</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.82082397308609</v>
@@ -17973,7 +17865,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.640921014331064</v>
+        <v>1.603375374311252</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.825808758334957</v>
@@ -18062,7 +17954,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.648818573087246</v>
+        <v>1.610194536956421</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.288108630653444</v>
@@ -18151,7 +18043,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.655926141410175</v>
+        <v>1.614346491887674</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.232017498055775</v>
@@ -18240,7 +18132,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.655010506635167</v>
+        <v>1.610215844605348</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.274388947873625</v>
@@ -18329,7 +18221,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.654928930028408</v>
+        <v>1.615355804260233</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.253944318697477</v>
@@ -18418,7 +18310,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.65632794164941</v>
+        <v>1.620603004892902</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.44179432982378</v>
@@ -18507,7 +18399,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.647418007783892</v>
+        <v>1.610920504727524</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.093722610213518</v>
@@ -18596,7 +18488,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.63440940178443</v>
+        <v>1.604145125655654</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.812076048732235</v>
@@ -18685,7 +18577,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.641438821414412</v>
+        <v>1.611667136539289</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.82198620790758</v>
@@ -18774,7 +18666,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.636546693481939</v>
+        <v>1.603315562948887</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.079483267508044</v>
@@ -18863,7 +18755,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.632187417468099</v>
+        <v>1.595664532566159</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.156907075972928</v>
@@ -18952,7 +18844,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.632684378811092</v>
+        <v>1.596729456594028</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.927050541471924</v>
@@ -19041,7 +18933,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.63283129102407</v>
+        <v>1.598464846123942</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.157753001763969</v>
@@ -19130,7 +19022,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.628929886461727</v>
+        <v>1.598135587099796</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.12267285824049</v>
@@ -19219,7 +19111,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.616140888120996</v>
+        <v>1.585448323436085</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.807654848857683</v>
@@ -19308,7 +19200,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.621203844647531</v>
+        <v>1.586535517925086</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.567202254258675</v>
@@ -19397,7 +19289,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.635460883729536</v>
+        <v>1.59597946258743</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.072247709240573</v>
@@ -19486,7 +19378,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.639752005081761</v>
+        <v>1.602790535470874</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.947110167595959</v>
@@ -19575,7 +19467,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.642006035517205</v>
+        <v>1.601320689101751</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.111593211677142</v>
@@ -19664,7 +19556,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.650176005988285</v>
+        <v>1.59827667211413</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.920109862207389</v>
@@ -19753,7 +19645,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.655953604546852</v>
+        <v>1.598119554171326</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.896263027647829</v>
@@ -19842,7 +19734,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.672253271500513</v>
+        <v>1.60671872951189</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.855001175421319</v>
@@ -19931,7 +19823,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.695389773461306</v>
+        <v>1.62061642706755</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.256727192856594</v>
@@ -20020,7 +19912,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.687078820833208</v>
+        <v>1.615962708173295</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.496606604377579</v>
@@ -20109,7 +20001,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.694422922314359</v>
+        <v>1.622265314682539</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.687618001108536</v>
@@ -20198,7 +20090,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.687935479865239</v>
+        <v>1.619432811641702</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.362660677595396</v>
@@ -20287,7 +20179,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.680571733143013</v>
+        <v>1.613861447842855</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.536151930644572</v>
@@ -20376,7 +20268,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.68189031022984</v>
+        <v>1.60345309261959</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.351531164842814</v>
@@ -20465,7 +20357,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.684292149005857</v>
+        <v>1.609402262066446</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.656799107086525</v>
@@ -20554,7 +20446,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.694801641233453</v>
+        <v>1.618396355387103</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.399298425551044</v>
@@ -20643,7 +20535,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.702201151045821</v>
+        <v>1.619248586464936</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.188955753018564</v>
@@ -20732,7 +20624,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.691250319712181</v>
+        <v>1.609788423046291</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.610916878793698</v>
@@ -20821,7 +20713,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.692484103716986</v>
+        <v>1.607975638700738</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.011072171982129</v>
@@ -20910,7 +20802,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.689434364085987</v>
+        <v>1.60884137038017</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.352506471902535</v>
@@ -20999,7 +20891,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.671847875381031</v>
+        <v>1.5937602848706</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.182725128897209</v>
@@ -21088,7 +20980,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.658029670036638</v>
+        <v>1.5825479970701</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.569157095199029</v>
@@ -21177,7 +21069,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.656504853931689</v>
+        <v>1.588368362654633</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.691539673819971</v>
@@ -21266,7 +21158,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.651633993175917</v>
+        <v>1.587821401482928</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.854327544577094</v>
@@ -21355,7 +21247,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.64978444952738</v>
+        <v>1.585313775375523</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.59877646222965</v>
@@ -21444,7 +21336,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.65420395837449</v>
+        <v>1.588463430798525</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.675525363724211</v>
@@ -21533,7 +21425,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.645241787277633</v>
+        <v>1.583400479300353</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.544200518011913</v>
@@ -21622,7 +21514,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.642856773955992</v>
+        <v>1.581237291489094</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.929502115979644</v>
@@ -21711,7 +21603,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.628566001894258</v>
+        <v>1.573747147130255</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.812096510127546</v>
@@ -21800,7 +21692,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.61694313098598</v>
+        <v>1.568506244035039</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.119254471251732</v>
@@ -21889,7 +21781,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.607543751926592</v>
+        <v>1.566014099744534</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.214423540573086</v>
@@ -21978,7 +21870,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.605347992069355</v>
+        <v>1.564793322816113</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.03965984940164</v>
@@ -22067,7 +21959,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.601960913606849</v>
+        <v>1.565699909288434</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.969989080939584</v>
@@ -22156,7 +22048,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.599914621278986</v>
+        <v>1.562521041588163</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.038260305536658</v>
@@ -22245,7 +22137,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.584836176270513</v>
+        <v>1.548307399896199</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.088230109123939</v>
@@ -22334,7 +22226,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.592440012207432</v>
+        <v>1.554490878398897</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.763011024542994</v>
@@ -22423,7 +22315,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.59295603960577</v>
+        <v>1.55468957596268</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.982242318680852</v>
@@ -22709,7 +22601,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.576761445184502</v>
+        <v>1.590554182133815</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.247712729516712</v>
@@ -22798,7 +22690,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.590685549423365</v>
+        <v>1.598900849128099</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.128631122820621</v>
@@ -22887,7 +22779,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.562374837380224</v>
+        <v>1.558412052990598</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.10902519158266</v>
@@ -22976,7 +22868,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.609773710158901</v>
+        <v>1.590416790319507</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.129053234491224</v>
@@ -23065,7 +22957,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.707236831115949</v>
+        <v>1.682504947709372</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.07678880473776</v>
@@ -23154,7 +23046,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.757063832177055</v>
+        <v>1.73220606149083</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.380931652824248</v>
@@ -23243,7 +23135,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.80150970219024</v>
+        <v>1.790689996438711</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.37577374261343</v>
@@ -23332,7 +23224,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.823914151421102</v>
+        <v>1.817278299766889</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.235122882967397</v>
@@ -23421,7 +23313,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.836070139256941</v>
+        <v>1.831755544240016</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.589519728957339</v>
@@ -23510,7 +23402,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.850826456662882</v>
+        <v>1.848945176180272</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.716985079859856</v>
@@ -23599,7 +23491,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.872635079616356</v>
+        <v>1.87693955577111</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.950324168085184</v>
@@ -23688,7 +23580,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.909382283419735</v>
+        <v>1.914502662738458</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.26330907733727</v>
@@ -23777,7 +23669,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.921456446050841</v>
+        <v>1.925895350099558</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.211830103866522</v>
@@ -23866,7 +23758,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.930244611640909</v>
+        <v>1.940731532426255</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.182423776397576</v>
@@ -23955,7 +23847,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.942973896546101</v>
+        <v>1.960255795324152</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.502735047468301</v>
@@ -24044,7 +23936,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.957052109590884</v>
+        <v>1.969914501948473</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.804339561174871</v>
@@ -24133,7 +24025,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.958710352133598</v>
+        <v>1.971903974224943</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.817401963161667</v>
@@ -24222,7 +24114,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.957659115714939</v>
+        <v>1.969563185998743</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>5.050243248599735</v>
@@ -24311,7 +24203,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.963138642086963</v>
+        <v>1.971235418535258</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.529127716502002</v>
@@ -24400,7 +24292,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.968074765376581</v>
+        <v>1.975460989257287</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.905074417124338</v>
@@ -24489,7 +24381,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.967552546749975</v>
+        <v>1.975651867586849</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.704982903088952</v>
@@ -24578,7 +24470,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.961680089349477</v>
+        <v>1.963150914004774</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.412954788806503</v>
@@ -24667,7 +24559,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.966877310555079</v>
+        <v>1.963886847221647</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.844226031891093</v>
@@ -24756,7 +24648,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.970270119865041</v>
+        <v>1.96364559025583</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>5.28525753183607</v>
@@ -24845,7 +24737,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.972589251096965</v>
+        <v>1.965880999255609</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.407360615942246</v>
@@ -24934,7 +24826,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.969558892592986</v>
+        <v>1.955291601950414</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.495718889253316</v>
@@ -25023,7 +24915,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.968488545566149</v>
+        <v>1.951992251980981</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>5.31585080547692</v>
@@ -25112,7 +25004,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.969597783675215</v>
+        <v>1.953474830281428</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.317689970679054</v>
@@ -25201,7 +25093,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.971413793745125</v>
+        <v>1.951645878625532</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>5.251998437301532</v>
@@ -25290,7 +25182,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.973732799118937</v>
+        <v>1.948405564087752</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.926489984975445</v>
@@ -25379,7 +25271,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.967448412282282</v>
+        <v>1.942321624480738</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.759795214930009</v>
@@ -25468,7 +25360,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.984375215475475</v>
+        <v>1.955461958654275</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.795432511956411</v>
@@ -25557,7 +25449,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.98688471938852</v>
+        <v>1.96040794592658</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>5.141974791563981</v>
@@ -25646,7 +25538,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.9871772131783</v>
+        <v>1.961139330900018</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.819840690084179</v>
@@ -25735,7 +25627,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.984097209829869</v>
+        <v>1.95607742412946</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>5.331488779755785</v>
@@ -25824,7 +25716,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.981605881050767</v>
+        <v>1.95028790499894</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.884864808361973</v>
@@ -25913,7 +25805,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.983105859610252</v>
+        <v>1.952222363763756</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>5.888873247255956</v>
@@ -26002,7 +25894,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.980361800920233</v>
+        <v>1.952350234062965</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>5.441825161191666</v>
@@ -26091,7 +25983,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.979371064115839</v>
+        <v>1.952666601569411</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.906484993277465</v>
@@ -26180,7 +26072,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.98006932736279</v>
+        <v>1.952980727004725</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>5.534288118185696</v>
@@ -26269,7 +26161,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.98371064018043</v>
+        <v>1.964556818552693</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>5.519841532166026</v>
@@ -26358,7 +26250,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.982303291839682</v>
+        <v>1.963900279780119</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.99093056795166</v>
@@ -26447,7 +26339,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.982957175802047</v>
+        <v>1.965275331421762</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.20809547103489</v>
@@ -26536,7 +26428,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.97948260472615</v>
+        <v>1.962892669489379</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.95678727111788</v>
@@ -26625,7 +26517,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.976524172835263</v>
+        <v>1.958309547659234</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.226996558359879</v>
@@ -26714,7 +26606,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.97809846356571</v>
+        <v>1.958747368703169</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>5.304021294748133</v>
@@ -26803,7 +26695,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.971962102956447</v>
+        <v>1.952910542488079</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>5.396939914181546</v>
@@ -26892,7 +26784,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.972063321663141</v>
+        <v>1.952100229868914</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.797769583624452</v>
@@ -26981,7 +26873,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.965254377689586</v>
+        <v>1.9473210265333</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.486326480890798</v>
@@ -27070,7 +26962,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.966848009176001</v>
+        <v>1.945134670642577</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.907074357983348</v>
@@ -27159,7 +27051,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.964873238936766</v>
+        <v>1.947645759768555</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>5.123091305776397</v>
@@ -27248,7 +27140,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.958862872506053</v>
+        <v>1.943022236903884</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.767029990583358</v>
@@ -27337,7 +27229,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.953762588790014</v>
+        <v>1.937191134395702</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.633228169831617</v>
@@ -27426,7 +27318,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.936657710763598</v>
+        <v>1.924562260789459</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.617721871424568</v>
@@ -27515,7 +27407,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.920201620885609</v>
+        <v>1.912713132737166</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.506341024882344</v>
@@ -27604,7 +27496,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.880946566087101</v>
+        <v>1.870772373812105</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.381753621459464</v>
@@ -27693,7 +27585,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.860510066454383</v>
+        <v>1.853924002041775</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.244014434003267</v>
@@ -27782,7 +27674,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.845236554029248</v>
+        <v>1.836836936102831</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.673051482921746</v>
@@ -27871,7 +27763,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.826821163380051</v>
+        <v>1.817495200912481</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.421183320286172</v>
@@ -27960,7 +27852,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.819172345017152</v>
+        <v>1.807016777056707</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.186024082805608</v>
@@ -28049,7 +27941,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.804716510550268</v>
+        <v>1.791948880573879</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.243369103848773</v>
@@ -28335,7 +28227,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.58334111298633</v>
+        <v>1.581942066242306</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.647433523249453</v>
@@ -28424,7 +28316,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.611814555965396</v>
+        <v>1.610294335897544</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.290680005406141</v>
@@ -28513,7 +28405,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.556015379387641</v>
+        <v>1.56273795210752</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.378136836265547</v>
@@ -28602,7 +28494,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.558921306442373</v>
+        <v>1.560609680028495</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.465489863733049</v>
@@ -28691,7 +28583,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.600917357879388</v>
+        <v>1.613312591114549</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.856393233077819</v>
@@ -28780,7 +28672,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.648355416799407</v>
+        <v>1.664472730564371</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.058679525426365</v>
@@ -28869,7 +28761,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.704264912067804</v>
+        <v>1.725149745044608</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.166517942474692</v>
@@ -28958,7 +28850,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.71684582138527</v>
+        <v>1.741669822269779</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.084963258383323</v>
@@ -29047,7 +28939,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.737456246123914</v>
+        <v>1.761538483414591</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.409761022983149</v>
@@ -29136,7 +29028,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.749242794101061</v>
+        <v>1.775484164680886</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.447020056793588</v>
@@ -29225,7 +29117,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.776241049378402</v>
+        <v>1.807821486238413</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.437315604362875</v>
@@ -29314,7 +29206,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.790582725550064</v>
+        <v>1.81974657417278</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.623198269968209</v>
@@ -29403,7 +29295,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.807803565250005</v>
+        <v>1.837004694120891</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.793746404945677</v>
@@ -29492,7 +29384,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.814914225154662</v>
+        <v>1.844777848053604</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.880680490997485</v>
@@ -29581,7 +29473,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.835035303179998</v>
+        <v>1.866902843137803</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.025796016493192</v>
@@ -29670,7 +29562,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.852229149584297</v>
+        <v>1.882606220201326</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.239272703471414</v>
@@ -29759,7 +29651,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.851697499455823</v>
+        <v>1.88167912997044</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.450045105712452</v>
@@ -29848,7 +29740,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.860091069023485</v>
+        <v>1.885365160122843</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.922815585540634</v>
@@ -29937,7 +29829,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.877725692749246</v>
+        <v>1.900730443900906</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.32300181288883</v>
@@ -30026,7 +29918,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.897607544711771</v>
+        <v>1.914085553832858</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.960077506096009</v>
@@ -30115,7 +30007,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.896674085816482</v>
+        <v>1.913808345061883</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.901313598290252</v>
@@ -30204,7 +30096,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.893790104516909</v>
+        <v>1.906763975969496</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.943938481588001</v>
@@ -30293,7 +30185,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.899453547955862</v>
+        <v>1.908630728082549</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.744051527064344</v>
@@ -30382,7 +30274,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.897439761223312</v>
+        <v>1.908637804765839</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.653382076677369</v>
@@ -30471,7 +30363,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.899627212997418</v>
+        <v>1.909230095310264</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.199307519398563</v>
@@ -30560,7 +30452,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.897525303720347</v>
+        <v>1.90150555246242</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.897267987575134</v>
@@ -30649,7 +30541,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.903778255317499</v>
+        <v>1.908442494396332</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.894789991572124</v>
@@ -30738,7 +30630,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.905684642086469</v>
+        <v>1.908957860366677</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.494347919203006</v>
@@ -30827,7 +30719,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.912828400329933</v>
+        <v>1.913204663787236</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.30965516349864</v>
@@ -30916,7 +30808,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.905958431969917</v>
+        <v>1.902691866772722</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.033902576359222</v>
@@ -31005,7 +30897,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.900682487193342</v>
+        <v>1.890996763313205</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.36746223112893</v>
@@ -31094,7 +30986,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.908133764667926</v>
+        <v>1.900487577788726</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.403209136594811</v>
@@ -31183,7 +31075,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.921982988578003</v>
+        <v>1.910555123460214</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.5771682131433</v>
@@ -31272,7 +31164,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.919381660354936</v>
+        <v>1.907220663635567</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.4498873576099</v>
@@ -31361,7 +31253,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.923222889315388</v>
+        <v>1.906223436131116</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.08035472091563</v>
@@ -31450,7 +31342,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.917456753463835</v>
+        <v>1.901900104695196</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.42026590714959</v>
@@ -31539,7 +31431,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.919085613278697</v>
+        <v>1.901921719557637</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.299826845033766</v>
@@ -31628,7 +31520,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.923218480540261</v>
+        <v>1.902079915301557</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.448229024307455</v>
@@ -31717,7 +31609,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.930879957668501</v>
+        <v>1.903651202890992</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>5.266849578505489</v>
@@ -31806,7 +31698,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.921255800194154</v>
+        <v>1.893604485338909</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.60323422735556</v>
@@ -31895,7 +31787,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.919551409890192</v>
+        <v>1.899049928632549</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.922761274115365</v>
@@ -31984,7 +31876,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.862099710426004</v>
+        <v>1.857201358707218</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.078583507791549</v>
@@ -32073,7 +31965,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.86319859825159</v>
+        <v>1.85888440260935</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.931549699156348</v>
@@ -32162,7 +32054,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.859607832241057</v>
+        <v>1.858386355654883</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.015070292704747</v>
@@ -32251,7 +32143,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.853714148192825</v>
+        <v>1.855369979730523</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.897604771445566</v>
@@ -32340,7 +32232,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.853499233680933</v>
+        <v>1.8567668796309</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.081467671777923</v>
@@ -32429,7 +32321,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.847857727030455</v>
+        <v>1.848449885749871</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.834299247938292</v>
@@ -32518,7 +32410,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.844112384691136</v>
+        <v>1.842875542661626</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.095755683375908</v>
@@ -32607,7 +32499,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.83901938625839</v>
+        <v>1.841656185648765</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.950515799444111</v>
@@ -32696,7 +32588,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.842475155823657</v>
+        <v>1.846223702941851</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.987701702562577</v>
@@ -32785,7 +32677,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.840305025338874</v>
+        <v>1.844773256951497</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.980488697185573</v>
@@ -32874,7 +32766,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.836133304662428</v>
+        <v>1.838997856900529</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.809741506678149</v>
@@ -32963,7 +32855,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.817897644566731</v>
+        <v>1.827042313171308</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.013632436299681</v>
@@ -33052,7 +32944,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.779300162423399</v>
+        <v>1.789416222120728</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.852396769793471</v>
@@ -33141,7 +33033,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.765174424541298</v>
+        <v>1.773198519625427</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.572090955810891</v>
@@ -33230,7 +33122,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.702594708357783</v>
+        <v>1.715490237269921</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.633381666512776</v>
@@ -33319,7 +33211,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.730798429508068</v>
+        <v>1.736121288877716</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.596187053283672</v>
@@ -33408,7 +33300,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.706857059612682</v>
+        <v>1.712369024868003</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.459179935513118</v>
@@ -33497,7 +33389,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.688242196399034</v>
+        <v>1.691807194765789</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.431860637768774</v>
@@ -33586,7 +33478,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.672076561540147</v>
+        <v>1.672727715229321</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.30651573884279</v>
@@ -33675,7 +33567,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.6551225288152</v>
+        <v>1.655437084330754</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.442378357890301</v>
@@ -33961,7 +33853,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.534417962601091</v>
+        <v>1.558282756241691</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.204024060560911</v>
@@ -34050,7 +33942,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.537810050627249</v>
+        <v>1.554992286536744</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.196825364194769</v>
@@ -34139,7 +34031,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.50368966238487</v>
+        <v>1.509657619621102</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.282353528758285</v>
@@ -34228,7 +34120,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.566661799706302</v>
+        <v>1.570667269836479</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.276901726341631</v>
@@ -34317,7 +34209,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.677247505712083</v>
+        <v>1.681737549954492</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.801962419214014</v>
@@ -34406,7 +34298,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.70754292213807</v>
+        <v>1.715692001724779</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.766262592385545</v>
@@ -34495,7 +34387,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.783113379686894</v>
+        <v>1.789563935435496</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.224979419563158</v>
@@ -34584,7 +34476,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.788171260878083</v>
+        <v>1.794661271969365</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.083539281983812</v>
@@ -34673,7 +34565,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.797872944387674</v>
+        <v>1.811170517541896</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.167007664304515</v>
@@ -34762,7 +34654,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.800802698435949</v>
+        <v>1.81608921558021</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.195505333613614</v>
@@ -34851,7 +34743,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.816823029089712</v>
+        <v>1.835790918155453</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.388075001688861</v>
@@ -34940,7 +34832,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.840288839522037</v>
+        <v>1.858921772958573</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.676484861057038</v>
@@ -35029,7 +34921,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.865346476100591</v>
+        <v>1.88232317345099</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.265784426597939</v>
@@ -35118,7 +35010,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.880829629984567</v>
+        <v>1.897381544461082</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.868547870349162</v>
@@ -35207,7 +35099,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.900068885746347</v>
+        <v>1.91929669986262</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.897874628193372</v>
@@ -35296,7 +35188,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.910741640553725</v>
+        <v>1.931332199974384</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.931633584974981</v>
@@ -35385,7 +35277,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.865995706144479</v>
+        <v>1.895362882446056</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.920723686552968</v>
@@ -35474,7 +35366,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.808264320444248</v>
+        <v>1.839706894161596</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.799882985011771</v>
@@ -35563,7 +35455,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.807445273718042</v>
+        <v>1.839606040954555</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.872073301810341</v>
@@ -35652,7 +35544,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.803394320941379</v>
+        <v>1.834714236007448</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.884283649789369</v>
@@ -35741,7 +35633,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.798624401946587</v>
+        <v>1.825520831104221</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.805654537725067</v>
@@ -35830,7 +35722,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.790770901352005</v>
+        <v>1.815192004468484</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.80857584000301</v>
@@ -35919,7 +35811,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.800843394359495</v>
+        <v>1.824286874576749</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.677233417152587</v>
@@ -36008,7 +35900,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.802709120647577</v>
+        <v>1.825011923497181</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.68897865383798</v>
@@ -36097,7 +35989,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.810380243513478</v>
+        <v>1.83256377769303</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.860845209459814</v>
@@ -36186,7 +36078,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.809438643641858</v>
+        <v>1.831200730611232</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.859781978700473</v>
@@ -36275,7 +36167,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.813100524530087</v>
+        <v>1.834789744349566</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.815261098949271</v>
@@ -36364,7 +36256,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.811072374784961</v>
+        <v>1.835636263178276</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.699808999650921</v>
@@ -36453,7 +36345,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.809574701675317</v>
+        <v>1.831252452844939</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.824577981909294</v>
@@ -36542,7 +36434,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.801821298534353</v>
+        <v>1.819582990593484</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.756532723674977</v>
@@ -36631,7 +36523,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.794814137391609</v>
+        <v>1.805869544681489</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.60702393502228</v>
@@ -36720,7 +36612,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.865419463646696</v>
+        <v>1.86649652518807</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.485225752513518</v>
@@ -36809,7 +36701,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.932798478993546</v>
+        <v>1.92009753609353</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.874101775686394</v>
@@ -36898,7 +36790,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.935303856799288</v>
+        <v>1.918061145422186</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>5.112330547319814</v>
@@ -36987,7 +36879,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.932085776548925</v>
+        <v>1.915836052978044</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.851089529295367</v>
@@ -37076,7 +36968,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.933034283965922</v>
+        <v>1.921093964124887</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>5.157515181888702</v>
@@ -37165,7 +37057,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.933836319793687</v>
+        <v>1.923676050309274</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.767846960769883</v>
@@ -37254,7 +37146,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.940105307011829</v>
+        <v>1.924121246572695</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.760605819244232</v>
@@ -37343,7 +37235,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.938656446165602</v>
+        <v>1.920535899637618</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.245810226530998</v>
@@ -37432,7 +37324,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.936751360668951</v>
+        <v>1.920049379109197</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>5.693237097376588</v>
@@ -37521,7 +37413,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.939852664290743</v>
+        <v>1.921657920008711</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>5.034255565648092</v>
@@ -37610,7 +37502,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.935372745621667</v>
+        <v>1.918098307557746</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.621053582616261</v>
@@ -37699,7 +37591,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.940239205174944</v>
+        <v>1.914769643791264</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.304232023629826</v>
@@ -37788,7 +37680,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.936894210305164</v>
+        <v>1.911871490549198</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.780437838135589</v>
@@ -37877,7 +37769,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.929185675270017</v>
+        <v>1.907363326405947</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.962189656198786</v>
@@ -37966,7 +37858,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.923235499491058</v>
+        <v>1.907018617983044</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>5.710320996496966</v>
@@ -38055,7 +37947,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.917654891825244</v>
+        <v>1.899557625880667</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.985893248813968</v>
@@ -38144,7 +38036,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.906083977519394</v>
+        <v>1.892793268203815</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.737250408798754</v>
@@ -38233,7 +38125,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.894753297725258</v>
+        <v>1.87941376837285</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.089242003798792</v>
@@ -38322,7 +38214,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.884578684013444</v>
+        <v>1.871792866416224</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.232161129666468</v>
@@ -38411,7 +38303,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.880086097866071</v>
+        <v>1.863308895901917</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.397362109503149</v>
@@ -38500,7 +38392,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.859302421620254</v>
+        <v>1.847343128719517</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.877783802285491</v>
@@ -38589,7 +38481,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.831437464629839</v>
+        <v>1.824180125176682</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.879965745180947</v>
@@ -38678,7 +38570,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.738645176502791</v>
+        <v>1.739016912805275</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.390154344380619</v>
@@ -38767,7 +38659,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.706464298597967</v>
+        <v>1.706776385363337</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.370015550879629</v>
@@ -38856,7 +38748,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.666922006949432</v>
+        <v>1.664785158688163</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.34699300681164</v>
@@ -38945,7 +38837,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.640918938044402</v>
+        <v>1.638048993530215</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.347771693902523</v>
@@ -39034,7 +38926,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.611787323037767</v>
+        <v>1.606856857579112</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.199203907223922</v>
@@ -39123,7 +39015,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.586552923378428</v>
+        <v>1.575218874434575</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.150054413478693</v>
@@ -39212,7 +39104,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.565088513481578</v>
+        <v>1.542076593505077</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.150991088539623</v>
@@ -39301,7 +39193,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.55038821186377</v>
+        <v>1.523419031159105</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.139415003175941</v>
